--- a/20-12-Ventilation_vs_Infectivity/Model-Reproduction-Gammatoni/220712_Model Parameters.xlsx
+++ b/20-12-Ventilation_vs_Infectivity/Model-Reproduction-Gammatoni/220712_Model Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSEP0001\Github\Vensim-Experiments\20-12-Ventilation_vs_Infectivity\Model-Reproduction-Gammatoni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E365F-941B-46CA-B144-7C59F4B71EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60121407-A367-44AF-B631-5C3B01ABB288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{18ACEB44-C3F2-4CA6-A75B-D7BBA85747C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Variable</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Maximum Value</t>
   </si>
   <si>
-    <t>Comparison Run</t>
-  </si>
-  <si>
     <t>Infection</t>
   </si>
   <si>
@@ -184,6 +181,15 @@
   </si>
   <si>
     <t>Switch-Ventilator UV</t>
+  </si>
+  <si>
+    <t>Comparison Run wrt FEM and empirica</t>
+  </si>
+  <si>
+    <t>Buonanno Run</t>
+  </si>
+  <si>
+    <t>Skagit Valley</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9CE232-FA3B-40C9-A22F-EA1C006C7347}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,24 +579,26 @@
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -598,8 +606,14 @@
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -607,18 +621,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>60</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -626,18 +642,20 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -645,18 +663,20 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>100000</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -664,18 +684,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -683,18 +705,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -702,18 +726,20 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>25</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -721,18 +747,20 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -740,18 +768,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -759,18 +789,20 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -778,18 +810,20 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1">
         <v>95</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -797,18 +831,20 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -816,18 +852,20 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3">
         <v>100000000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -835,18 +873,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -854,18 +894,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -873,18 +915,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -892,18 +936,20 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>350</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -911,29 +957,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3">
         <v>3.0000000000000001E-6</v>
@@ -944,19 +992,21 @@
       <c r="G19" s="3">
         <v>3.0000000000000001E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1">
         <v>1000</v>
@@ -967,42 +1017,46 @@
       <c r="G20" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="4">
         <v>1204</v>
@@ -1013,19 +1067,21 @@
       <c r="G22" s="4">
         <v>1204</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3">
         <v>1.8069999999999999E-2</v>
@@ -1036,44 +1092,50 @@
       <c r="G23" s="3">
         <v>1.8069999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
